--- a/QuanLyChiTieu/Data/kikaho/Transaction.xlsx
+++ b/QuanLyChiTieu/Data/kikaho/Transaction.xlsx
@@ -16,19 +16,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
-    <x:t>Ghi chú</x:t>
+    <x:t>Mã giao dịch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Loại giao dịch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ngày giao dịch</x:t>
   </x:si>
   <x:si>
     <x:t>Số tiền</x:t>
   </x:si>
   <x:si>
-    <x:t>Ngày giao dịch</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Loại giao dịch</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mã giao dịch</x:t>
+    <x:t>Ghi chú</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -387,19 +387,19 @@
   <x:sheetData>
     <x:row r="1" spans="1:5">
       <x:c r="A1" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/QuanLyChiTieu/Data/kikaho/Transaction.xlsx
+++ b/QuanLyChiTieu/Data/kikaho/Transaction.xlsx
@@ -1,15 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:workbook xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <x:workbookPr codeName="ThisWorkbook"/>
   <x:bookViews>
-    <x:workbookView firstSheet="0" activeTab="0"/>
+    <x:workbookView windowWidth="23040" windowHeight="9000" firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="kikaho" sheetId="1" r:id="rId2"/>
+    <x:sheet name="kikaho" sheetId="1" r:id="rId1"/>
+    <x:sheet name="abc" sheetId="2" r:id="rId5"/>
   </x:sheets>
   <x:definedNames/>
-  <x:calcPr calcId="125725"/>
+  <x:calcPr calcId="191029"/>
+  <x:extLst>
+    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </x:ext>
+  </x:extLst>
 </x:workbook>
 </file>
 
@@ -30,15 +45,184 @@
   <x:si>
     <x:t>Ghi chú</x:t>
   </x:si>
+  <x:si>
+    <x:t>tran0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>abc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>czxzc</x:t>
+  </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="xr9">
+  <x:numFmts count="4">
+    <x:numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <x:numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <x:numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <x:numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="22">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:charset val="134"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:charset val="134"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:u/>
+      <x:sz val="11"/>
+      <x:color rgb="FF0000FF"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:u/>
+      <x:sz val="11"/>
+      <x:color rgb="FF800080"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FFFF0000"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="18"/>
+      <x:color theme="3"/>
+      <x:name val="Calibri"/>
+      <x:charset val="134"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:i/>
+      <x:sz val="11"/>
+      <x:color rgb="FF7F7F7F"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="15"/>
+      <x:color theme="3"/>
+      <x:name val="Calibri"/>
+      <x:charset val="134"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="13"/>
+      <x:color theme="3"/>
+      <x:name val="Calibri"/>
+      <x:charset val="134"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:color theme="3"/>
+      <x:name val="Calibri"/>
+      <x:charset val="134"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FF3F3F76"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:color rgb="FF3F3F3F"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:color rgb="FFFA7D00"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:color rgb="FFFFFFFF"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FFFA7D00"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FF006100"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FF9C0006"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color rgb="FF9C6500"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="0"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:charset val="0"/>
+      <x:scheme val="minor"/>
+    </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -47,47 +231,542 @@
       <x:family val="2"/>
     </x:font>
   </x:fonts>
-  <x:fills count="2">
+  <x:fills count="33">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="gray125"/>
     </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFFFCC"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFCC99"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFF2F2F2"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFA5A5A5"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFC6EFCE"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFC7CE"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFEB9C"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="4"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="4" tint="0.799981688894314"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="4" tint="0.599993896298105"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="4" tint="0.399975585192419"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="5"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="5" tint="0.799981688894314"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="5" tint="0.599993896298105"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="5" tint="0.399975585192419"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="6"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="6" tint="0.799981688894314"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="6" tint="0.599993896298105"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="6" tint="0.399975585192419"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="7"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="7" tint="0.799981688894314"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="7" tint="0.599993896298105"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="7" tint="0.399975585192419"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="8"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="8" tint="0.799981688894314"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="8" tint="0.599993896298105"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="8" tint="0.399975585192419"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="9"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="9" tint="0.799981688894314"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="9" tint="0.599993896298105"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="9" tint="0.399975585192419"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
   </x:fills>
-  <x:borders count="1">
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
+  <x:borders count="9">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="FFB2B2B2"/>
       </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
+      <x:right style="thin">
+        <x:color rgb="FFB2B2B2"/>
       </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
+      <x:top style="thin">
+        <x:color rgb="FFB2B2B2"/>
       </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
+      <x:bottom style="thin">
+        <x:color rgb="FFB2B2B2"/>
       </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom style="medium">
+        <x:color theme="4"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom style="medium">
+        <x:color theme="4" tint="0.499984740745262"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="FF7F7F7F"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF7F7F7F"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF7F7F7F"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF7F7F7F"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="FF3F3F3F"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF3F3F3F"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF3F3F3F"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF3F3F3F"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left style="double">
+        <x:color rgb="FF3F3F3F"/>
+      </x:left>
+      <x:right style="double">
+        <x:color rgb="FF3F3F3F"/>
+      </x:right>
+      <x:top style="double">
+        <x:color rgb="FF3F3F3F"/>
+      </x:top>
+      <x:bottom style="double">
+        <x:color rgb="FF3F3F3F"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom style="double">
+        <x:color rgb="FFFF8001"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top style="thin">
+        <x:color theme="4"/>
+      </x:top>
+      <x:bottom style="double">
+        <x:color theme="4"/>
+      </x:bottom>
+      <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+  <x:cellStyleXfs count="50">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+    <x:xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
+  <x:cellXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <x:alignment wrapText="1"/>
     </x:xf>
   </x:cellXfs>
-  <x:cellStyles count="1">
+  <x:cellStyles count="49">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <x:cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <x:cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <x:cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <x:cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <x:cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <x:cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <x:cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <x:cellStyle name="Note" xfId="8" builtinId="10"/>
+    <x:cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <x:cellStyle name="Title" xfId="10" builtinId="15"/>
+    <x:cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <x:cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <x:cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <x:cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <x:cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <x:cellStyle name="Input" xfId="16" builtinId="20"/>
+    <x:cellStyle name="Output" xfId="17" builtinId="21"/>
+    <x:cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <x:cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <x:cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <x:cellStyle name="Total" xfId="21" builtinId="25"/>
+    <x:cellStyle name="Good" xfId="22" builtinId="26"/>
+    <x:cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <x:cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <x:cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <x:cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <x:cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <x:cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <x:cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <x:cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <x:cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <x:cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <x:cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <x:cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <x:cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <x:cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <x:cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <x:cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <x:cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <x:cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <x:cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <x:cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <x:cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <x:cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <x:cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <x:cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <x:cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <x:cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </x:cellStyles>
+  <x:tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <x:tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <x:tableStyleElement type="wholeTable" dxfId="6"/>
+      <x:tableStyleElement type="headerRow" dxfId="5"/>
+      <x:tableStyleElement type="totalRow" dxfId="4"/>
+      <x:tableStyleElement type="firstColumn" dxfId="3"/>
+      <x:tableStyleElement type="lastColumn" dxfId="2"/>
+      <x:tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <x:tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </x:tableStyle>
+    <x:tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <x:tableStyleElement type="headerRow" dxfId="16"/>
+      <x:tableStyleElement type="totalRow" dxfId="15"/>
+      <x:tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <x:tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <x:tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <x:tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <x:tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <x:tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <x:tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <x:tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </x:tableStyle>
+  </x:tableStyles>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </x:ext>
+  </x:extLst>
 </x:styleSheet>
 </file>
 
@@ -370,20 +1049,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E1"/>
+  <x:dimension ref="A1:E2"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="E2" sqref="E2"/>
+    </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultColWidth="8.996339" defaultRowHeight="14.4"/>
+  <x:cols>
+    <x:col min="1" max="1" width="12.222222" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="13.111111" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="15.888889" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="7.222222" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:5">
       <x:c r="A1" s="0" t="s">
@@ -402,7 +1088,43 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
+    <x:row r="2" spans="1:5">
+      <x:c r="A2" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C2" s="1">
+        <x:v>45630.6758217593</x:v>
+      </x:c>
+      <x:c r="D2" s="0">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>

--- a/QuanLyChiTieu/Data/kikaho/Transaction.xlsx
+++ b/QuanLyChiTieu/Data/kikaho/Transaction.xlsx
@@ -18,19 +18,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
+    <x:t>Ghi chú</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Số tiền</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ngày giao dịch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Loại giao dịch</x:t>
+  </x:si>
+  <x:si>
     <x:t>Mã giao dịch</x:t>
   </x:si>
   <x:si>
-    <x:t>Loại giao dịch</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ngày giao dịch</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Số tiền</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ghi chú</x:t>
+    <x:t>Ví điện tử</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -387,21 +390,24 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:5">
+    <x:row r="1" spans="1:6">
       <x:c r="A1" s="0" t="s">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
